--- a/Excel2FlatBuffers/ExcelTable/Entity.xlsx
+++ b/Excel2FlatBuffers/ExcelTable/Entity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\UnityProject\BiuBiu\Excel2FlatBuffers\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E789F8B-368B-4F4C-9A50-FC07273616E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839B69C7-6A4C-419E-A2FE-39231F27A6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12705" yWindow="4500" windowWidth="27435" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11625" yWindow="4710" windowWidth="27435" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>skip</t>
   </si>
@@ -53,11 +53,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Soldier</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>士兵</t>
+    <t>小怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +495,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -544,17 +552,25 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C6" s="8"/>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C7" s="8"/>
